--- a/id2name.xlsx
+++ b/id2name.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,6 +1816,956 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>34047819</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>타우렝</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>34049952</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>물따귀</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>32933551</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>똘돌</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>32836063</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Big Sish</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>33376297</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>강씨아저씨</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>34231316</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>안감독</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>32852263</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>빡돌</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>33980638</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>타도철수</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>32863456</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>fireworkcorki</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>32867811</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>킨잘</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>32853536</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>포유</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>32939441</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>미산M</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>32939705</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>황소</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>34231456</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>유선</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>32902261</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>약먹</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>32939213</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>션돌</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>32819832</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>액트</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>32957115</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>잘하거나자라거나</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>26385006</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>alzaeim</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>32884774</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>기범아빠</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>31851240</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Ro Downey Jr</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>34229105</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>폭풍돌팸황충</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>32903451</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>국제공항</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>34115436</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>서태웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>32897649</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>유감토깽이</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>33095971</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>아버</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>32863931</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>빈도</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>32853239</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>폭풍캠핑</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>32965304</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>혈마</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>32863540</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>우강다</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>32873708</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>현산성</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>32926625</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>양형</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>32885735</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>복돌이90</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>32843465</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1485삐삑</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>36946100</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>테누토</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>32915287</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>양념삼겹살</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>32904641</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>아톰행크스</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>32822380</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>식량과목재</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>33571072</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>나도함</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>32863779</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>코딱</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>33214422</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>아속의비아</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>33812904</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>불화수소1</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>32924821</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>kensin83</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>32916551</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>RED가브리엘</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>32888795</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>괴짜영웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>34680040</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>하이룽루</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>32893093</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>WaLeeD</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>33968960</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>어흥비</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>33084418</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>와이2제이</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>32909298</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>놀란토끼98</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>32851428</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TOP뒷집형</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>32861208</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>은색달</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>34073039</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>이순신 강</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>32852827</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>좋은아침</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>32909486</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>부라리두짝</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>32894351</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Jenny888</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>32939868</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>카키0</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>32933712</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>아바타인간</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>35081535</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>옹통령</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>32928428</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>조커H</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>45038942</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>지라리풍풍</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>32900066</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>네다바이</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>32855794</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Dragonyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>32033026</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>향료수</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>32913745</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>이실로브</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>32873241</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>이차분이</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>33994508</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>캭퉤잇</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>32848980</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>내가너좀좋아하면안되냐</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>32906229</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>튼이</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>32890892</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>성운성운</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>32933915</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>열매야</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>32958309</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>눈을감자</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>32902606</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>구르마</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>32896806</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>단오쿤</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>32872503</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>후라이</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>34000984</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>감금물</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>36956928</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>우리가돈이없지가오가없어</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>32914945</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>율곡이이</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>32861045</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>PS행쇼</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>32858772</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>신식빠빠롱</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>31820014</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>제논맥티넌</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>32894892</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>이기고싶다</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>68447544</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ER 칭호</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>32901612</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>을지로삼가</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>34029293</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Welcome To Hell</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>32968225</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>에스페란쟈</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>32930996</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>여왕라니아</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>32925366</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>아크네피림</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>32854442</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>95판다곰</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>32886708</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>카니쟈</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>33210483</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>박향단</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>43290699</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>펭러브</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>32879062</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>DEATH PROOF</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>32856088</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>김초심</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>32855654</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>마내가니라이언전무랑</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/id2name.xlsx
+++ b/id2name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH_Home\Desktop\rok_ocr\ROK_OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1065515-77BC-4017-89CF-728DA6E72413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E82B59-18D8-445D-8AD3-80BCD5E0F0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2430" windowWidth="13830" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2655" windowWidth="13830" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -729,6 +729,10 @@
   </si>
   <si>
     <t>teto1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호9와토9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1101,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235:B235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1119,1873 +1123,1881 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>32858679</v>
+        <v>32838586</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>32886907</v>
+        <v>32858679</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>32916567</v>
+        <v>32886907</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>32888148</v>
+        <v>32916567</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>32860442</v>
+        <v>32888148</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>44463382</v>
+        <v>32860442</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>32881045</v>
+        <v>44463382</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>34174033</v>
+        <v>32881045</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>33691098</v>
+        <v>34174033</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>32951689</v>
+        <v>33691098</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>32852651</v>
+        <v>32951689</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>32842266</v>
+        <v>32852651</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>34068695</v>
+        <v>32842266</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>35454450</v>
+        <v>34068695</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>34012835</v>
+        <v>35454450</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>32881241</v>
+        <v>34012835</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>32820259</v>
+        <v>32881241</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>32878345</v>
+        <v>32820259</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>32819484</v>
+        <v>32878345</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>32900080</v>
+        <v>32819484</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>33334611</v>
+        <v>32900080</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>33898594</v>
+        <v>33334611</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>32910924</v>
+        <v>33898594</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>33984315</v>
+        <v>32910924</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>34011747</v>
+        <v>33984315</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>32878596</v>
+        <v>34011747</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>32904134</v>
+        <v>32878596</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>32947520</v>
+        <v>32904134</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>32889863</v>
+        <v>32947520</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>32873041</v>
+        <v>32889863</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32858701</v>
+        <v>32873041</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33963794</v>
+        <v>32858701</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32870013</v>
+        <v>33963794</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>32921831</v>
+        <v>32870013</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>32850372</v>
+        <v>32921831</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>33995797</v>
+        <v>32850372</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>34027799</v>
+        <v>33995797</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>34344247</v>
+        <v>34027799</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>32818701</v>
+        <v>34344247</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>33264554</v>
+        <v>32818701</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>32886302</v>
+        <v>33264554</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>32866794</v>
+        <v>32886302</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>32916643</v>
+        <v>32866794</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>34015869</v>
+        <v>32916643</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>32909658</v>
+        <v>34015869</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>32850382</v>
+        <v>32909658</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>32871044</v>
+        <v>32850382</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>32908249</v>
+        <v>32871044</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>32911721</v>
+        <v>32908249</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>32937381</v>
+        <v>32911721</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>32865578</v>
+        <v>32937381</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>32889186</v>
+        <v>32865578</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>37268288</v>
+        <v>32889186</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>35508783</v>
+        <v>37268288</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>32824512</v>
+        <v>35508783</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>32937876</v>
+        <v>32824512</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>32939826</v>
+        <v>32937876</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>32931677</v>
+        <v>32939826</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>39715543</v>
+        <v>32931677</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>32899091</v>
+        <v>39715543</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>32921203</v>
+        <v>32899091</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>34001747</v>
+        <v>32921203</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>34035160</v>
+        <v>34001747</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>36892658</v>
+        <v>34035160</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>32905501</v>
+        <v>36892658</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>35650857</v>
+        <v>32905501</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>32895911</v>
+        <v>35650857</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>37796819</v>
+        <v>32895911</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>34568871</v>
+        <v>37796819</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>32916321</v>
+        <v>34568871</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>52207379</v>
+        <v>32916321</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>53114051</v>
+        <v>52207379</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>60143585</v>
+        <v>53114051</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>32875812</v>
+        <v>60143585</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>63002044</v>
+        <v>32875812</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>32904825</v>
+        <v>63002044</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>32915466</v>
+        <v>32904825</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>63270437</v>
+        <v>32915466</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>49497280</v>
+        <v>63270437</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>64094946</v>
+        <v>49497280</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>69419248</v>
+        <v>64094946</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>32914780</v>
+        <v>69419248</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>32921102</v>
+        <v>32914780</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>33003834</v>
+        <v>32921102</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>32948675</v>
+        <v>33003834</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>34000149</v>
+        <v>32948675</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>32944092</v>
+        <v>34000149</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>32858136</v>
+        <v>32944092</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>32904056</v>
+        <v>32858136</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>32877848</v>
+        <v>32904056</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>32892748</v>
+        <v>32877848</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>32885285</v>
+        <v>32892748</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>32901235</v>
+        <v>32885285</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>34882192</v>
+        <v>32901235</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>32873061</v>
+        <v>34882192</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>42395617</v>
+        <v>32873061</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>38003357</v>
+        <v>42395617</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>35658838</v>
+        <v>38003357</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>42193164</v>
+        <v>35658838</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>38066976</v>
+        <v>42193164</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>41805300</v>
+        <v>38066976</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>42547043</v>
+        <v>41805300</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>56796484</v>
+        <v>42547043</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>42546537</v>
+        <v>56796484</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>42482910</v>
+        <v>42546537</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>55222825</v>
+        <v>42482910</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>52115995</v>
+        <v>55222825</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>55223781</v>
+        <v>52115995</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>68575684</v>
+        <v>55223781</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>32963004</v>
+        <v>68575684</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>32864188</v>
+        <v>32963004</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>36954744</v>
+        <v>32864188</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>32930660</v>
+        <v>36954744</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>32928689</v>
+        <v>32930660</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>32949515</v>
+        <v>32928689</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>37061883</v>
+        <v>32949515</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>33161683</v>
+        <v>37061883</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>32849136</v>
+        <v>33161683</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>32934708</v>
+        <v>32849136</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>34023817</v>
+        <v>32934708</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>32997413</v>
+        <v>34023817</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>32838380</v>
+        <v>32997413</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>34352176</v>
+        <v>32838380</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>34014496</v>
+        <v>34352176</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>32852288</v>
+        <v>34014496</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>42322165</v>
+        <v>32852288</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>32880341</v>
+        <v>42322165</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>69900353</v>
+        <v>32880341</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>39738082</v>
+        <v>69900353</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>32877496</v>
+        <v>39738082</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>32931643</v>
+        <v>32877496</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>32869646</v>
+        <v>32931643</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>32958563</v>
+        <v>32869646</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>36654814</v>
+        <v>32958563</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>32890539</v>
+        <v>36654814</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>33154600</v>
+        <v>32890539</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>36466625</v>
+        <v>33154600</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>34047819</v>
+        <v>36466625</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>34049952</v>
+        <v>34047819</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>32933551</v>
+        <v>34049952</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>32836063</v>
+        <v>32933551</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>33376297</v>
+        <v>32836063</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>34231316</v>
+        <v>33376297</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>32852263</v>
+        <v>34231316</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>33980638</v>
+        <v>32852263</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>32863456</v>
+        <v>33980638</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>32867811</v>
+        <v>32863456</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>32853536</v>
+        <v>32867811</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>32939441</v>
+        <v>32853536</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>32939705</v>
+        <v>32939441</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>34231456</v>
+        <v>32939705</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>32902261</v>
+        <v>34231456</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>32939213</v>
+        <v>32902261</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>32819832</v>
+        <v>32939213</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>32957115</v>
+        <v>32819832</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>26385006</v>
+        <v>32957115</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>32884774</v>
+        <v>26385006</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>31851240</v>
+        <v>32884774</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>34229105</v>
+        <v>31851240</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>32903451</v>
+        <v>34229105</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>34115436</v>
+        <v>32903451</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>32897649</v>
+        <v>34115436</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>33095971</v>
+        <v>32897649</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>32863931</v>
+        <v>33095971</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>32853239</v>
+        <v>32863931</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>32965304</v>
+        <v>32853239</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>32863540</v>
+        <v>32965304</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>32873708</v>
+        <v>32863540</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>32926625</v>
+        <v>32873708</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>32885735</v>
+        <v>32926625</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>32843465</v>
+        <v>32885735</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>36946100</v>
+        <v>32843465</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>32915287</v>
+        <v>36946100</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>32904641</v>
+        <v>32915287</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>32822380</v>
+        <v>32904641</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>33571072</v>
+        <v>32822380</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>32863779</v>
+        <v>33571072</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>33214422</v>
+        <v>32863779</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>33812904</v>
+        <v>33214422</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>32924821</v>
+        <v>33812904</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>32916551</v>
+        <v>32924821</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>32888795</v>
+        <v>32916551</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>34680040</v>
+        <v>32888795</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>32893093</v>
+        <v>34680040</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>33968960</v>
+        <v>32893093</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>33084418</v>
+        <v>33968960</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>32909298</v>
+        <v>33084418</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>32851428</v>
+        <v>32909298</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>32861208</v>
+        <v>32851428</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>34073039</v>
+        <v>32861208</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>32852827</v>
+        <v>34073039</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>32909486</v>
+        <v>32852827</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>32894351</v>
+        <v>32909486</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>32939868</v>
+        <v>32894351</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>32933712</v>
+        <v>32939868</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>35081535</v>
+        <v>32933712</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>32928428</v>
+        <v>35081535</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>45038942</v>
+        <v>32928428</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>32900066</v>
+        <v>45038942</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>32855794</v>
+        <v>32900066</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>32033026</v>
+        <v>32855794</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>32913745</v>
+        <v>32033026</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>32873241</v>
+        <v>32913745</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>33994508</v>
+        <v>32873241</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>32848980</v>
+        <v>33994508</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>32906229</v>
+        <v>32848980</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>32890892</v>
+        <v>32906229</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>32933915</v>
+        <v>32890892</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>32958309</v>
+        <v>32933915</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>32902606</v>
+        <v>32958309</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>32896806</v>
+        <v>32902606</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>32872503</v>
+        <v>32896806</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>34000984</v>
+        <v>32872503</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>36956928</v>
+        <v>34000984</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>32914945</v>
+        <v>36956928</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>32861045</v>
+        <v>32914945</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>32858772</v>
+        <v>32861045</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>31820014</v>
+        <v>32858772</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>32894892</v>
+        <v>31820014</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>68447544</v>
+        <v>32894892</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>32901612</v>
+        <v>68447544</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>34029293</v>
+        <v>32901612</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>32968225</v>
+        <v>34029293</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>32930996</v>
+        <v>32968225</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>32925366</v>
+        <v>32930996</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>32854442</v>
+        <v>32925366</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>32886708</v>
+        <v>32854442</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>33210483</v>
+        <v>32886708</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>43290699</v>
+        <v>33210483</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>32879062</v>
+        <v>43290699</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>32856088</v>
+        <v>32879062</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>32855654</v>
+        <v>32856088</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>32847935</v>
+        <v>32855654</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
+        <v>32847935</v>
+      </c>
+      <c r="B235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
         <v>33244924</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>
